--- a/sad_pnt_crds.xlsx
+++ b/sad_pnt_crds.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pvk/Nextcloud/SHENG/Kostryukov/Langevin/Python code/langevin_code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pvk/Documents/GitHub/FEL3D/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471AF90B-0DF9-A142-BC85-F6703F976B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0886681-6D0C-D84E-B980-38427CDC45CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Z90" sheetId="1" r:id="rId1"/>
@@ -4844,8 +4844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="13"/>
@@ -5141,13 +5141,13 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="D11" s="3">
         <v>8.9999988700000005E-2</v>
       </c>
       <c r="E11" s="3">
-        <v>5.9999987499999997E-2</v>
+        <v>-5.9999987499999997E-2</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -5405,8 +5405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DD33F57-C526-FE4C-B980-EF1EEE92E616}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F6:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
